--- a/src/test/resources/testdata/rezysaveplatform.xlsx
+++ b/src/test/resources/testdata/rezysaveplatform.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\barblinendtoendtest\rezysaveplatform\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64394226-1BE4-44DD-8026-7CFFDE75BE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE7A7DE-6932-4D35-BA15-6FCE509A3E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F104BCDF-07CE-E345-81D9-603FD5D8F11E}"/>
+    <workbookView xWindow="0" yWindow="1320" windowWidth="23040" windowHeight="10920" activeTab="2" xr2:uid="{F104BCDF-07CE-E345-81D9-603FD5D8F11E}"/>
   </bookViews>
   <sheets>
     <sheet name="admin user" sheetId="1" r:id="rId1"/>
     <sheet name="invalid user" sheetId="2" r:id="rId2"/>
+    <sheet name="Inventory" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>userEmail</t>
   </si>
@@ -64,6 +65,60 @@
   </si>
   <si>
     <t>admin1@gmail.com</t>
+  </si>
+  <si>
+    <t>deviceCategory</t>
+  </si>
+  <si>
+    <t>deviceName</t>
+  </si>
+  <si>
+    <t>serialNumber</t>
+  </si>
+  <si>
+    <t>Smoke Detector / Fire Alarm</t>
+  </si>
+  <si>
+    <t>Temp &amp; Humidity</t>
+  </si>
+  <si>
+    <t>Water Flow Meters</t>
+  </si>
+  <si>
+    <t>Door Sensors</t>
+  </si>
+  <si>
+    <t>Gateways</t>
+  </si>
+  <si>
+    <t>Smoke Detector</t>
+  </si>
+  <si>
+    <t>Type 1</t>
+  </si>
+  <si>
+    <t>Dragino LDS02</t>
+  </si>
+  <si>
+    <t>Kona Micro IoT</t>
+  </si>
+  <si>
+    <t>Dragino CPL01</t>
+  </si>
+  <si>
+    <t>smoke12345</t>
+  </si>
+  <si>
+    <t>tesmp12345</t>
+  </si>
+  <si>
+    <t>water12345</t>
+  </si>
+  <si>
+    <t>door12345</t>
+  </si>
+  <si>
+    <t>gatway12345</t>
   </si>
 </sst>
 </file>
@@ -447,7 +502,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -486,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1C7CCF-2481-48A6-9C28-3C4D55C500F1}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -552,4 +607,90 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB0F378-86C2-411F-B0BA-4FA96CD00D07}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.796875" customWidth="1"/>
+    <col min="2" max="2" width="26.3984375" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>